--- a/啡与啡_新.xlsx
+++ b/啡与啡_新.xlsx
@@ -604,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG141"/>
+  <dimension ref="A1:BG147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
@@ -28739,6 +28739,1218 @@
         </is>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>1135.00</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA142" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB142" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AC142" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AD142" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG142" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL142" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM142" t="inlineStr">
+        <is>
+          <t>珠海_啡與啡单人餐[23.8]</t>
+        </is>
+      </c>
+      <c r="AN142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO142" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV142" t="inlineStr">
+        <is>
+          <t>珠海_啡與啡危地馬拉[19.0]</t>
+        </is>
+      </c>
+      <c r="AW142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX142" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>1135.00</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA143" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB143" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AC143" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AD143" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG143" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL143" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM143" t="inlineStr">
+        <is>
+          <t>珠海_啡與啡单人餐[23.8]</t>
+        </is>
+      </c>
+      <c r="AN143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO143" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV143" t="inlineStr">
+        <is>
+          <t>珠海_啡與啡危地馬拉[19.0]</t>
+        </is>
+      </c>
+      <c r="AW143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX143" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>1135.00</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA144" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB144" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AC144" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AD144" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG144" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL144" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM144" t="inlineStr">
+        <is>
+          <t>珠海_啡與啡单人餐[23.8]</t>
+        </is>
+      </c>
+      <c r="AN144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO144" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV144" t="inlineStr">
+        <is>
+          <t>珠海_啡與啡危地馬拉[19.0]</t>
+        </is>
+      </c>
+      <c r="AW144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX144" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>1135.00</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB145" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AC145" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AD145" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG145" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL145" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM145" t="inlineStr">
+        <is>
+          <t>珠海_啡與啡单人餐[23.8]</t>
+        </is>
+      </c>
+      <c r="AN145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO145" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV145" t="inlineStr">
+        <is>
+          <t>珠海_啡與啡危地馬拉[19.0]</t>
+        </is>
+      </c>
+      <c r="AW145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX145" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>704.00</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA146" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB146" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AC146" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AD146" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG146" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL146" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM146" t="inlineStr">
+        <is>
+          <t>珠海_啡與啡单人餐[23.8]</t>
+        </is>
+      </c>
+      <c r="AN146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO146" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV146" t="inlineStr">
+        <is>
+          <t>珠海_啡與啡危地馬拉[19.0]</t>
+        </is>
+      </c>
+      <c r="AW146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AX146" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>704.00</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA147" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AC147" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AD147" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AE147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG147" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AL147" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM147" t="inlineStr">
+        <is>
+          <t>珠海_啡與啡单人餐[23.8]</t>
+        </is>
+      </c>
+      <c r="AN147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV147" t="inlineStr">
+        <is>
+          <t>珠海_啡與啡危地馬拉[19.0]</t>
+        </is>
+      </c>
+      <c r="AW147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AX147" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
